--- a/Data Files/configdata.xlsx
+++ b/Data Files/configdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerInfo" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="679">
   <si>
     <t>SSN</t>
   </si>
@@ -1971,15 +1971,9 @@
     <t>INVOICE PAYMENT</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>INSURANCE COMPANY</t>
   </si>
   <si>
-    <t>ATENA COMMERCIAL TEST</t>
-  </si>
-  <si>
     <t>CASH</t>
   </si>
   <si>
@@ -1992,9 +1986,6 @@
     <t>CustomerLastName</t>
   </si>
   <si>
-    <t>519-01-9975</t>
-  </si>
-  <si>
     <t>chCSTRAIN</t>
   </si>
   <si>
@@ -2008,6 +1999,69 @@
   </si>
   <si>
     <t>CHCSTRAIN</t>
+  </si>
+  <si>
+    <t>519-01-9976</t>
+  </si>
+  <si>
+    <t>PLName</t>
+  </si>
+  <si>
+    <t>PFName</t>
+  </si>
+  <si>
+    <t>PCUSID</t>
+  </si>
+  <si>
+    <t>PSSN</t>
+  </si>
+  <si>
+    <t>PPHNO</t>
+  </si>
+  <si>
+    <t>PickUpNo</t>
+  </si>
+  <si>
+    <t>Poffice</t>
+  </si>
+  <si>
+    <t>PPersonCallin</t>
+  </si>
+  <si>
+    <t>PEmpNoName</t>
+  </si>
+  <si>
+    <t>POrderNO</t>
+  </si>
+  <si>
+    <t>Ppatient</t>
+  </si>
+  <si>
+    <t>PScheduleDayAfter</t>
+  </si>
+  <si>
+    <t>PScheduleDayBefore</t>
+  </si>
+  <si>
+    <t>10042</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>ABC INSURANCE TEST</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>05232022</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>295</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,7 +2775,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>108</v>
@@ -2730,7 +2784,7 @@
         <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>65</v>
@@ -3953,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4633,7 +4687,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4642,55 +4696,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>651</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5693,7 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6570,10 +6628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6581,7 +6639,7 @@
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:42">
       <c r="A1" s="22" t="s">
         <v>235</v>
       </c>
@@ -6640,10 +6698,10 @@
         <v>620</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>630</v>
@@ -6669,10 +6727,49 @@
       <c r="AC1" s="29" t="s">
         <v>635</v>
       </c>
+      <c r="AD1" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>671</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:42">
       <c r="A2" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>178</v>
@@ -6712,10 +6809,10 @@
         <v>168</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="V2" s="5">
-        <v>329619</v>
+        <v>656</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>678</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -6730,10 +6827,29 @@
       <c r="AC2" s="5">
         <v>1</v>
       </c>
+      <c r="AD2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6787,7 +6903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:42">
       <c r="A4" s="12" t="s">
         <v>527</v>
       </c>
@@ -6795,7 +6911,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:42">
       <c r="A5" s="7" t="s">
         <v>236</v>
       </c>
@@ -6803,17 +6919,17 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:42">
       <c r="I6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:42">
       <c r="A9" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" t="s">
         <v>653</v>
-      </c>
-      <c r="B9" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6829,10 +6945,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6842,7 +6958,7 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="25" customFormat="1">
+    <row r="1" spans="1:31" s="25" customFormat="1">
       <c r="A1" s="22" t="s">
         <v>331</v>
       </c>
@@ -6933,10 +7049,13 @@
       <c r="AD1" s="22" t="s">
         <v>360</v>
       </c>
+      <c r="AE1" s="22" t="s">
+        <v>673</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="5">
-        <v>411</v>
+    <row r="2" spans="1:31">
+      <c r="A2" s="7" t="s">
+        <v>677</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>178</v>
@@ -7006,6 +7125,9 @@
       </c>
       <c r="AD2" s="5">
         <v>3</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7320,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7350,7 +7472,7 @@
   <dimension ref="A1:BW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data Files/configdata.xlsx
+++ b/Data Files/configdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerInfo" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,20 @@
     <sheet name="PurchaseOrder" sheetId="11" r:id="rId10"/>
     <sheet name="DataSetup" sheetId="12" r:id="rId11"/>
     <sheet name="Payment" sheetId="13" r:id="rId12"/>
+    <sheet name="CustomerOrderReport" sheetId="14" r:id="rId13"/>
+    <sheet name="CustomerReport" sheetId="15" r:id="rId14"/>
+    <sheet name="ClaimDetailReport" sheetId="16" r:id="rId15"/>
+    <sheet name="AgingReport" sheetId="17" r:id="rId16"/>
+    <sheet name="InventoryStockReport" sheetId="18" r:id="rId17"/>
+    <sheet name="InventoryRegisterReport" sheetId="19" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="808">
   <si>
     <t>SSN</t>
   </si>
@@ -63,9 +70,6 @@
     <t>Home Tel.</t>
   </si>
   <si>
-    <t>USER1</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -429,21 +433,6 @@
     <t>USER2</t>
   </si>
   <si>
-    <t>241 LOMBARD ST.</t>
-  </si>
-  <si>
-    <t>91360</t>
-  </si>
-  <si>
-    <t>THOUSAND OAKS</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>Hardship</t>
   </si>
   <si>
@@ -534,9 +523,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
@@ -552,9 +538,6 @@
     <t>MsgNumber</t>
   </si>
   <si>
-    <t>cc@test.com</t>
-  </si>
-  <si>
     <t>7412589630</t>
   </si>
   <si>
@@ -636,15 +619,9 @@
     <t>Alert</t>
   </si>
   <si>
-    <t>Test Facility</t>
-  </si>
-  <si>
     <t>1546531</t>
   </si>
   <si>
-    <t>5464</t>
-  </si>
-  <si>
     <t>Test Alert</t>
   </si>
   <si>
@@ -717,21 +694,12 @@
     <t>Test Bill To</t>
   </si>
   <si>
-    <t>2316 1ST AVE SOUTH</t>
-  </si>
-  <si>
     <t>Lombard Street</t>
   </si>
   <si>
     <t>Test Business</t>
   </si>
   <si>
-    <t>35233</t>
-  </si>
-  <si>
-    <t>6547890123</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
@@ -795,9 +763,6 @@
     <t>123123EA</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -1419,9 +1384,6 @@
     <t>JIMMTRAIN</t>
   </si>
   <si>
-    <t>519-01-9952</t>
-  </si>
-  <si>
     <t>RENTAL</t>
   </si>
   <si>
@@ -1515,9 +1477,6 @@
     <t>Request Date To</t>
   </si>
   <si>
-    <t>SENT</t>
-  </si>
-  <si>
     <t>REGULAR PO</t>
   </si>
   <si>
@@ -1884,9 +1843,6 @@
     <t>USER3</t>
   </si>
   <si>
-    <t>2138</t>
-  </si>
-  <si>
     <t>PhysicianFirstName</t>
   </si>
   <si>
@@ -1896,27 +1852,15 @@
     <t>MSI JASPER</t>
   </si>
   <si>
-    <t>AARP CLAIMS UNIT</t>
-  </si>
-  <si>
-    <t>AARP HEALTH CARE OPTION</t>
-  </si>
-  <si>
     <t># 005. VIVA</t>
   </si>
   <si>
     <t>GENERIC</t>
   </si>
   <si>
-    <t>519-01-9957</t>
-  </si>
-  <si>
     <t>TERTIARY</t>
   </si>
   <si>
-    <t>000257495</t>
-  </si>
-  <si>
     <t>ReturnOrder</t>
   </si>
   <si>
@@ -1941,9 +1885,6 @@
     <t>ReturnSKU</t>
   </si>
   <si>
-    <t>10102021</t>
-  </si>
-  <si>
     <t>TransactionType</t>
   </si>
   <si>
@@ -1977,18 +1918,12 @@
     <t>CASH</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>10072</t>
   </si>
   <si>
     <t>CustomerLastName</t>
   </si>
   <si>
-    <t>chCSTRAIN</t>
-  </si>
-  <si>
     <t>51031</t>
   </si>
   <si>
@@ -1998,77 +1933,536 @@
     <t>DME</t>
   </si>
   <si>
+    <t>PLName</t>
+  </si>
+  <si>
+    <t>PFName</t>
+  </si>
+  <si>
+    <t>PCUSID</t>
+  </si>
+  <si>
+    <t>PSSN</t>
+  </si>
+  <si>
+    <t>PPHNO</t>
+  </si>
+  <si>
+    <t>PickUpNo</t>
+  </si>
+  <si>
+    <t>Poffice</t>
+  </si>
+  <si>
+    <t>PPersonCallin</t>
+  </si>
+  <si>
+    <t>PEmpNoName</t>
+  </si>
+  <si>
+    <t>POrderNO</t>
+  </si>
+  <si>
+    <t>Ppatient</t>
+  </si>
+  <si>
+    <t>PScheduleDayAfter</t>
+  </si>
+  <si>
+    <t>PScheduleDayBefore</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>ABC INSURANCE TEST</t>
+  </si>
+  <si>
+    <t>05232022</t>
+  </si>
+  <si>
+    <t>Date Type</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>IncludePreAuthOrder</t>
+  </si>
+  <si>
+    <t>ORDER DATE</t>
+  </si>
+  <si>
+    <t>CustID</t>
+  </si>
+  <si>
+    <t>CustName</t>
+  </si>
+  <si>
+    <t>ClaimStatus</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>CurrentCondition</t>
+  </si>
+  <si>
+    <t>FromClaimDate</t>
+  </si>
+  <si>
+    <t>ToClaimDate</t>
+  </si>
+  <si>
+    <t>Customer Id</t>
+  </si>
+  <si>
+    <t>Beginning Date</t>
+  </si>
+  <si>
+    <t>Ending Date</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>invoicewithClaims</t>
+  </si>
+  <si>
+    <t>CurrentConditions</t>
+  </si>
+  <si>
+    <t>AgingOption</t>
+  </si>
+  <si>
+    <t>With Claims Only</t>
+  </si>
+  <si>
+    <t>Item Desc</t>
+  </si>
+  <si>
+    <t>Item Status</t>
+  </si>
+  <si>
+    <t>Item Criteria</t>
+  </si>
+  <si>
+    <t>SALE ITEM</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>All Insurances</t>
+  </si>
+  <si>
+    <t>MEDSOUTHTRAIN</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>03242022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED HEALTHCARE - - </t>
+  </si>
+  <si>
+    <t>UNITED HEALTHCARE</t>
+  </si>
+  <si>
+    <t>BillToLastName</t>
+  </si>
+  <si>
+    <t>BillToFirstName</t>
+  </si>
+  <si>
+    <t>BillToID</t>
+  </si>
+  <si>
+    <t>BillToType</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>BeginningInvoiceDate</t>
+  </si>
+  <si>
+    <t>EndingInvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceBalance</t>
+  </si>
+  <si>
+    <t>InvoiceClaims</t>
+  </si>
+  <si>
+    <t>MAKE</t>
+  </si>
+  <si>
+    <t>PartNumber</t>
+  </si>
+  <si>
+    <t>ITEMDescription</t>
+  </si>
+  <si>
+    <t>WITH CLAIMS ONLY</t>
+  </si>
+  <si>
+    <t>TransferToOffice</t>
+  </si>
+  <si>
+    <t>TransferQty</t>
+  </si>
+  <si>
+    <t>TransferFromOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TransferMake</t>
+  </si>
+  <si>
+    <t>TransferPart No</t>
+  </si>
+  <si>
+    <t>TransferSKU</t>
+  </si>
+  <si>
+    <t>TransferLotNO</t>
+  </si>
+  <si>
+    <t>TransferDescription</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>000257468</t>
+  </si>
+  <si>
+    <t>medsouthtrain</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>329519</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>261356</t>
+  </si>
+  <si>
+    <t>CHANG</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>TPARTNO</t>
+  </si>
+  <si>
+    <t>TESTDESCRIPTION</t>
+  </si>
+  <si>
+    <t>ALNY</t>
+  </si>
+  <si>
+    <t>72915</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>HSS</t>
+  </si>
+  <si>
+    <t>MEDSOUTH</t>
+  </si>
+  <si>
+    <t>522-03-1983</t>
+  </si>
+  <si>
+    <t>523-04-1984</t>
+  </si>
+  <si>
+    <t>524-05-1985</t>
+  </si>
+  <si>
+    <t>525-06-1986</t>
+  </si>
+  <si>
+    <t>526-01-1987</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>USER21</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>JINNY</t>
+  </si>
+  <si>
+    <t>MARRIED</t>
+  </si>
+  <si>
+    <t>DIVORCED</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>WIDOWED</t>
+  </si>
+  <si>
+    <t>15/07/1985</t>
+  </si>
+  <si>
+    <t>32940</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Time Square Diner, 7777 N Wickham Rd, Melbourne</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>9876543212</t>
+  </si>
+  <si>
+    <t>9876543213</t>
+  </si>
+  <si>
+    <t>9876543214</t>
+  </si>
+  <si>
+    <t>9876543215</t>
+  </si>
+  <si>
+    <t>9876543216</t>
+  </si>
+  <si>
+    <t>9876543217</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>USER26</t>
+  </si>
+  <si>
+    <t>TEST62</t>
+  </si>
+  <si>
+    <t>test567@test.com</t>
+  </si>
+  <si>
+    <t>EarCare, 7777 N Wickham Rd</t>
+  </si>
+  <si>
+    <t>9872543210</t>
+  </si>
+  <si>
+    <t>419-11-9900</t>
+  </si>
+  <si>
+    <t>test214@test.com</t>
+  </si>
+  <si>
+    <t>9876542510</t>
+  </si>
+  <si>
+    <t>USER89</t>
+  </si>
+  <si>
+    <t>9856553210</t>
+  </si>
+  <si>
+    <t>cc57@test.com</t>
+  </si>
+  <si>
+    <t>Test524</t>
+  </si>
+  <si>
+    <t>User36</t>
+  </si>
+  <si>
+    <t>Test Facility35</t>
+  </si>
+  <si>
+    <t>12363</t>
+  </si>
+  <si>
+    <t>VG Salon &amp; Co, 7777 N Wickham Rd</t>
+  </si>
+  <si>
+    <t>test57@gmail.com</t>
+  </si>
+  <si>
+    <t>Brazilian Top Team, 7777 N Wickham Rd</t>
+  </si>
+  <si>
+    <t>6547760123</t>
+  </si>
+  <si>
+    <t>5962</t>
+  </si>
+  <si>
+    <t>01012022</t>
+  </si>
+  <si>
+    <t>08182022</t>
+  </si>
+  <si>
+    <t>01012021</t>
+  </si>
+  <si>
     <t>CHCSTRAIN</t>
   </si>
   <si>
-    <t>519-01-9976</t>
-  </si>
-  <si>
-    <t>PLName</t>
-  </si>
-  <si>
-    <t>PFName</t>
-  </si>
-  <si>
-    <t>PCUSID</t>
-  </si>
-  <si>
-    <t>PSSN</t>
-  </si>
-  <si>
-    <t>PPHNO</t>
-  </si>
-  <si>
-    <t>PickUpNo</t>
-  </si>
-  <si>
-    <t>Poffice</t>
-  </si>
-  <si>
-    <t>PPersonCallin</t>
-  </si>
-  <si>
-    <t>PEmpNoName</t>
-  </si>
-  <si>
-    <t>POrderNO</t>
-  </si>
-  <si>
-    <t>Ppatient</t>
-  </si>
-  <si>
-    <t>PScheduleDayAfter</t>
-  </si>
-  <si>
-    <t>PScheduleDayBefore</t>
-  </si>
-  <si>
-    <t>10042</t>
-  </si>
-  <si>
-    <t>InvoiceDate</t>
-  </si>
-  <si>
-    <t>ABC INSURANCE TEST</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>05232022</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>295</t>
+    <t>TESTMAKE</t>
+  </si>
+  <si>
+    <t>TESTSTPARTNOEA0203</t>
+  </si>
+  <si>
+    <t>TESTPARTNO</t>
+  </si>
+  <si>
+    <t>08222022</t>
+  </si>
+  <si>
+    <t>GERACE</t>
+  </si>
+  <si>
+    <t>PTX100856070</t>
+  </si>
+  <si>
+    <t>70560</t>
+  </si>
+  <si>
+    <t>1815 MARIGOLD DRIVE</t>
+  </si>
+  <si>
+    <t>NEW IBERIA</t>
+  </si>
+  <si>
+    <t>IBERIA</t>
+  </si>
+  <si>
+    <t>JAYSON</t>
+  </si>
+  <si>
+    <t>MCKENNA</t>
+  </si>
+  <si>
+    <t>72972</t>
+  </si>
+  <si>
+    <t>TEST DESC1</t>
+  </si>
+  <si>
+    <t>MEDICARE JURISDICTION A</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>ACTIVES</t>
+  </si>
+  <si>
+    <t>ALL ITEMS ARE RECEIVED</t>
+  </si>
+  <si>
+    <t>621-02-1982</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>660-01-1981</t>
+  </si>
+  <si>
+    <t>000000103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,12 +2491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2115,6 +2503,20 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2226,12 +2628,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2242,7 +2648,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2258,37 +2664,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2587,55 +3002,63 @@
   <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="15" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="15" width="9.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" customWidth="1"/>
     <col min="22" max="22" width="5.42578125" customWidth="1"/>
     <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.85546875" customWidth="1"/>
     <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
     <col min="31" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" customWidth="1"/>
     <col min="38" max="38" width="8.28515625" customWidth="1"/>
     <col min="39" max="39" width="7.42578125" customWidth="1"/>
     <col min="40" max="40" width="7.5703125" customWidth="1"/>
+    <col min="41" max="41" width="25.85546875" customWidth="1"/>
     <col min="43" max="43" width="11.7109375" customWidth="1"/>
     <col min="44" max="44" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2644,22 +3067,22 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -2668,13 +3091,13 @@
         <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>5</v>
@@ -2698,1095 +3121,1095 @@
         <v>11</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>730</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="23">
-        <v>20112022</v>
+        <v>54</v>
+      </c>
+      <c r="P2" s="14">
+        <v>35410</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>56</v>
+        <v>792</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AH2" s="7" t="s">
-        <v>112</v>
+        <v>757</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>113</v>
+        <v>751</v>
       </c>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>464</v>
+      <c r="F3" s="5" t="s">
+        <v>803</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>733</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>187</v>
+        <v>732</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="23">
-        <v>37237</v>
+        <v>734</v>
+      </c>
+      <c r="P3" s="14">
+        <v>40849</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="AI3" s="7" t="s">
-        <v>113</v>
+        <v>752</v>
       </c>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR3" s="5" t="s">
+      <c r="AS3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW3" s="5" t="s">
+      <c r="AX3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>464</v>
+      <c r="F4" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>730</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="23">
-        <v>37237</v>
+        <v>736</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>738</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AF4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AH4" s="7" t="s">
-        <v>112</v>
+        <v>760</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>113</v>
+        <v>753</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AN4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AS4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW4" s="5" t="s">
+      <c r="AX4" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>464</v>
+      <c r="F5" s="5" t="s">
+        <v>724</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>733</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>187</v>
+        <v>732</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="23">
-        <v>37237</v>
+        <v>54</v>
+      </c>
+      <c r="P5" s="46">
+        <v>43987</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AE5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AF5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AH5" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="AI5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>464</v>
+      <c r="F6" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>730</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="23">
-        <v>37237</v>
+        <v>735</v>
+      </c>
+      <c r="P6" s="14">
+        <v>27553</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V6" s="7" t="s">
+      <c r="AE6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="AI6" s="7" t="s">
-        <v>113</v>
+        <v>754</v>
       </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AN6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AS6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>464</v>
+      <c r="F7" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>733</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>187</v>
+        <v>732</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="23">
-        <v>37237</v>
+        <v>54</v>
+      </c>
+      <c r="P7" s="14">
+        <v>43770</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AE7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AF7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AH7" s="7" t="s">
-        <v>112</v>
+        <v>759</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>113</v>
+        <v>755</v>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AO7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AS7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW7" s="5" t="s">
+      <c r="AX7" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX7" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>464</v>
+      <c r="F8" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>728</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>730</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="23">
-        <v>37237</v>
+        <v>737</v>
+      </c>
+      <c r="P8" s="14">
+        <v>38698</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>56</v>
+        <v>741</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V8" s="7" t="s">
+      <c r="AE8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="AI8" s="7" t="s">
-        <v>113</v>
+        <v>756</v>
       </c>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR8" s="5" t="s">
+      <c r="AS8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AS8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW8" s="5" t="s">
+      <c r="AX8" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -4005,133 +4428,152 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="43" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:36" s="31" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="Q1" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="R1" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="S1" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="T1" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="U1" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="V1" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="W1" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="J1" s="22" t="s">
+      <c r="X1" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="AC1" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="AD1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="AE1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="T1" s="22" t="s">
+      <c r="AF1" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="AG1" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="AH1" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="W1" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>617</v>
+      <c r="AI1" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>802</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4140,13 +4582,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -4155,37 +4597,37 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="T2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="U2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>629</v>
+        <v>807</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -4198,6 +4640,14 @@
       </c>
       <c r="AJ2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="AF4" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4211,250 +4661,288 @@
   <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" customWidth="1"/>
+    <col min="48" max="49" width="12.140625" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
+    <col min="51" max="51" width="24" customWidth="1"/>
+    <col min="52" max="52" width="18" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" customWidth="1"/>
+    <col min="58" max="58" width="15.5703125" customWidth="1"/>
+    <col min="59" max="59" width="15.28515625" customWidth="1"/>
+    <col min="60" max="60" width="14.7109375" customWidth="1"/>
+    <col min="63" max="63" width="21.7109375" customWidth="1"/>
+    <col min="64" max="64" width="15.42578125" customWidth="1"/>
+    <col min="65" max="65" width="15.5703125" customWidth="1"/>
+    <col min="66" max="66" width="15" customWidth="1"/>
+    <col min="67" max="67" width="17" customWidth="1"/>
+    <col min="68" max="68" width="18.5703125" customWidth="1"/>
+    <col min="69" max="69" width="14.42578125" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" customWidth="1"/>
+    <col min="73" max="73" width="15.5703125" customWidth="1"/>
+    <col min="74" max="74" width="16.5703125" customWidth="1"/>
+    <col min="75" max="75" width="11.42578125" customWidth="1"/>
+    <col min="76" max="76" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:76">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="R1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="S1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="V1" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="X1" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="N1" s="28" t="s">
+      <c r="Z1" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="AB1" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC1" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="R1" s="29" t="s">
+      <c r="AD1" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="S1" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="U1" s="30" t="s">
+      <c r="AE1" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="AM1" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="V1" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="W1" s="31" t="s">
+      <c r="AN1" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="X1" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y1" s="32" t="s">
+      <c r="AO1" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="Z1" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>555</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AP1" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="AS1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AT1" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="AF1" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH1" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AV1" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="AY1" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ1" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA1" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB1" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="AK1" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>565</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>566</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="AP1" s="39" t="s">
+      <c r="BC1" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="BD1" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="BE1" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF1" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="BG1" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="BH1" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="BI1" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="BJ1" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="BK1" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="BL1" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="BM1" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="BN1" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="BO1" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="BP1" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="BQ1" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="BR1" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="BS1" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="BT1" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="BU1" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="AT1" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="AU1" s="39" t="s">
-        <v>578</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>587</v>
-      </c>
-      <c r="AY1" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ1" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="BA1" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="BB1" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="BC1" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="BD1" s="41" t="s">
+      <c r="BV1" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="BE1" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF1" s="41" t="s">
+      <c r="BW1" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="BX1" s="29" t="s">
         <v>599</v>
-      </c>
-      <c r="BG1" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="BH1" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="BI1" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="BJ1" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="BK1" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="BL1" s="41" t="s">
-        <v>604</v>
-      </c>
-      <c r="BM1" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="BN1" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="BO1" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="BP1" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="BQ1" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="BR1" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="BS1" s="41" t="s">
-        <v>592</v>
-      </c>
-      <c r="BT1" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="BU1" s="41" t="s">
-        <v>593</v>
-      </c>
-      <c r="BV1" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="BW1" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="BX1" s="41" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:76">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D2" s="5">
         <v>35501</v>
@@ -4475,7 +4963,7 @@
         <v>1.56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="K2" s="5">
         <v>2.2200000000000002</v>
@@ -4487,82 +4975,82 @@
         <v>12122022</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="P2" s="5">
         <v>10</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="U2" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="W2" s="24">
+        <v>89</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG2" s="27" t="s">
         <v>553</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="W2" s="34">
-        <v>88</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="AG2" s="38" t="s">
-        <v>569</v>
       </c>
       <c r="AH2" s="5">
         <v>15271</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AJ2" s="5">
         <v>2</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AL2" s="5">
         <v>5</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AN2" s="5">
         <v>3</v>
@@ -4571,100 +5059,100 @@
         <v>4</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AR2" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="AW2" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="AX2" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="AY2" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="AZ2" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="BA2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC2" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="BD2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="AS2" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="AV2" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="AW2" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="AX2" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="BA2" s="11" t="s">
+      <c r="BF2" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="BG2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="BL2" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="BM2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="BB2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC2" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="BD2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="BG2" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="BR2" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>612</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>543</v>
-      </c>
-      <c r="BW2">
+      <c r="BR2" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="BW2" s="5">
         <v>1</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4684,71 +5172,96 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>646</v>
+      <c r="A1" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>675</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="5" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>674</v>
+        <v>799</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>650</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="E4" s="34" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -4757,49 +5270,646 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="H3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="H7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="I3" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="33" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="javascript:formInvSchResult_ToInquiry(29);"/>
+    <hyperlink ref="D2" r:id="rId2" display="javascript:formInvSchResult_ToInquiry(29);"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="35" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"- ALL -,WITH BALANCE ONLY,WITHOUT BALANCE ONLY,WITH NEGATIVE BALANCE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"- ALL -,FACILITY,PATIENT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"- ALL -,WITH CLAIMS ONLY,WITHOUT CLAIMS ONLY"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CU6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="68" max="68" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -4808,13 +5918,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -4823,7 +5933,7 @@
         <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -4832,536 +5942,536 @@
         <v>6</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="AM1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BM1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BO1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="CA1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="CC1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CO1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CP1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CR1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CS1" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CT1" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CU1" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="CS1" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="CT1" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:99">
       <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>730</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>52</v>
+        <v>731</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>59</v>
+        <v>763</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>56</v>
+        <v>764</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="AY2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="AZ2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="BB2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="BD2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" s="7" t="s">
+      <c r="BG2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="BI2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF2" s="7" t="s">
+      <c r="BK2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="BL2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="BP2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BU2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BV2" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="BW2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BX2" s="5"/>
       <c r="BY2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BZ2" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="CA2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CE2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="CF2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="CD2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="CF2" s="7" t="s">
+      <c r="CG2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CH2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CI2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CI2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CL2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CK2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="CL2" s="7" t="s">
+      <c r="CN2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CM2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CN2" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="CO2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CP2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="CQ2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="CS2" s="3" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:99">
@@ -5653,25 +6763,45 @@
       <c r="CR4">
         <v>96</v>
       </c>
+      <c r="CS4">
+        <v>97</v>
+      </c>
+      <c r="CT4">
+        <v>98</v>
+      </c>
+      <c r="CU4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99">
+      <c r="K6" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="M6" t="s">
+        <v>721</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2 CO2 BN2 BL2 BP2 AI2 AK2 AM2 A2 G2 D2 J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2 J2 D2 G2 A2 AM2 AK2 AI2 BP2 BL2 BN2 CO2">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2 BB2 Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CE2 Y2 BB2">
       <formula1>"SELF,SPOUSE,CHILD,OTHERS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2 BJ2 AG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2 AG2 BJ2">
       <formula1>"Total Allowed Amount,Balance of Allowed after Primary Payment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2 AQ2 N2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2 N2 AQ2">
       <formula1>"Jr,Mr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 F2 C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 C2 F2">
       <formula1>"'1,'2,'3,'4,'5,'6,'7,'8,'9,'10,'11,'12,'13,'14,'15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 E2 H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 H2 E2">
       <formula1>"PRIMARY,SECONDARY,TERTIARY,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CS2:CU2">
@@ -5693,21 +6823,24 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="33" max="33" width="17.28515625" customWidth="1"/>
     <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5716,13 +6849,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -5737,247 +6870,247 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="W1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="X1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="Y1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="10" t="s">
+      <c r="Z1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AG1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AH1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AK1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AL1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AM1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AN1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AH1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AO1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AP1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>177</v>
+      <c r="AS1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>769</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>134</v>
+        <v>792</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>791</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>136</v>
+        <v>793</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>138</v>
+        <v>794</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>94</v>
+        <v>770</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>182</v>
+        <v>129</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>183</v>
+        <v>129</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="W2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AL2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AB2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AM2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AI2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AT2" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -6151,310 +7284,315 @@
   <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.28515625" customWidth="1"/>
+    <col min="50" max="50" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="AA1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="19" t="s">
+      <c r="AB1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="AC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AF1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AI1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AM1" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>74</v>
+      <c r="AR1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>205</v>
+      <c r="P2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>780</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="V2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="AB2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AC2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH2" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI2" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AG2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AN2" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AP2" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AJ2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>232</v>
-      </c>
       <c r="AT2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>178</v>
+        <v>60</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>234</v>
+        <v>60</v>
+      </c>
+      <c r="AX2" s="37" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -6628,166 +7766,168 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="L1" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="N1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="O1" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>630</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="X1" s="29" t="s">
+      <c r="P1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="Y1" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="Z1" s="29" t="s">
+      <c r="V1" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="AD1" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF1" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="AH1" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AA1" s="29" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>663</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>666</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>670</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>671</v>
+      <c r="AI1" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="12" t="s">
-        <v>651</v>
+      <c r="A2" s="7" t="s">
+        <v>630</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="7" t="s">
-        <v>619</v>
+        <v>790</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -6797,44 +7937,42 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>168</v>
+        <v>789</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>678</v>
+        <v>632</v>
+      </c>
+      <c r="V2" s="7">
+        <v>902</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="23" t="s">
-        <v>638</v>
+      <c r="AA2" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="AC2" s="5">
         <v>1</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>168</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="AE2" s="5"/>
       <c r="AF2" s="7" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
@@ -6849,7 +7987,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6905,31 +8043,51 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="12" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>255</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:42">
       <c r="I6" t="s">
-        <v>526</v>
+        <v>510</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="W6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="I8">
+        <v>171113</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="12" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="B9" t="s">
-        <v>653</v>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -6945,10 +8103,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6958,176 +8116,184 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="25" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:31" s="15" customFormat="1">
+      <c r="A1" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="P1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="Q1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="R1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="S1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="T1" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="U1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="V1" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="W1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="X1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="Y1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="Z1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="AA1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="AB1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="AC1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="AD1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>673</v>
+      <c r="AE1" s="13" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="7" t="s">
-        <v>677</v>
+        <v>804</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26">
-        <v>12</v>
-      </c>
-      <c r="F2" s="26">
-        <v>12122020</v>
-      </c>
-      <c r="G2" s="26">
-        <v>10072021</v>
+        <v>347</v>
+      </c>
+      <c r="D2" s="16">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16">
+        <v>12122019</v>
+      </c>
+      <c r="G2" s="16">
+        <v>10212022</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AD2" s="5">
         <v>3</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>676</v>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7176,7 +8342,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7192,107 +8358,106 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>796</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="D2">
+        <v>72972</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="H3">
         <v>9947</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="23">
+        <v>58</v>
+      </c>
+      <c r="M3" s="14">
         <v>12122001</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="P3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7309,7 +8474,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7319,126 +8483,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="V1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="W1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7469,253 +8633,292 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:CF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="76" max="76" width="16" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.5703125" customWidth="1"/>
+    <col min="80" max="80" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:75">
-      <c r="A1" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:84">
+      <c r="A1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="I1" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="Y1" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AY1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BB1" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="BC1" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AH1" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="BD1" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="BX1" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="BY1" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="BZ1" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="CA1" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="CB1" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="CC1" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="CD1" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="CE1" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="CF1" s="44" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="AK1" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="AL1" s="22" t="s">
+      <c r="B2" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="AM1" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="AP1" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="AR1" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS1" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="AT1" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="AU1" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX1" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ1" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA1" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="BB1" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="BC1" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="BD1" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="BE1" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="BF1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG1" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="BH1" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="BI1" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="BJ1" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="BK1" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="BL1" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="BM1" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="BN1" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="BO1" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="BP1" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="BQ1" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="BR1" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS1" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="BT1" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="BU1" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="BV1" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="BW1" s="24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75">
-      <c r="A2" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D2" t="s">
-        <v>402</v>
+      <c r="C2" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7728,194 +8931,457 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="N2" s="5">
         <v>12122031</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="T2" s="5">
         <v>15</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="AE2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AJ2" s="5">
         <v>50</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR2" s="5"/>
       <c r="AS2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="BB2" s="5">
         <v>112</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="BD2" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="BE2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="BG2">
+        <v>439</v>
+      </c>
+      <c r="BD2" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="BG2" s="5">
         <v>30</v>
       </c>
-      <c r="BH2" t="s">
-        <v>483</v>
-      </c>
-      <c r="BI2">
+      <c r="BH2" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI2" s="5">
         <v>12122025</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>484</v>
-      </c>
-      <c r="BK2">
+      <c r="BJ2" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="BK2" s="5">
         <v>20</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="5">
         <v>60</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>10102022</v>
+      </c>
+      <c r="BQ2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="BS2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BT2" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="5">
+        <v>11172021</v>
+      </c>
+      <c r="BV2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="CD2" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84">
+      <c r="C3" s="36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
         <v>13</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>19</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>21</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>24</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>27</v>
+      </c>
+      <c r="AB5">
+        <v>28</v>
+      </c>
+      <c r="AC5">
+        <v>29</v>
+      </c>
+      <c r="AD5">
+        <v>30</v>
+      </c>
+      <c r="AE5">
+        <v>31</v>
+      </c>
+      <c r="AF5">
+        <v>32</v>
+      </c>
+      <c r="AG5">
+        <v>33</v>
+      </c>
+      <c r="AH5">
+        <v>34</v>
+      </c>
+      <c r="AI5">
+        <v>35</v>
+      </c>
+      <c r="AJ5">
+        <v>36</v>
+      </c>
+      <c r="AK5">
+        <v>37</v>
+      </c>
+      <c r="AL5">
+        <v>38</v>
+      </c>
+      <c r="AM5">
+        <v>39</v>
+      </c>
+      <c r="AN5">
+        <v>40</v>
+      </c>
+      <c r="AO5">
+        <v>41</v>
+      </c>
+      <c r="AP5">
+        <v>42</v>
+      </c>
+      <c r="AQ5">
+        <v>43</v>
+      </c>
+      <c r="AR5">
+        <v>44</v>
+      </c>
+      <c r="AS5">
+        <v>45</v>
+      </c>
+      <c r="AT5">
+        <v>46</v>
+      </c>
+      <c r="AU5">
+        <v>47</v>
+      </c>
+      <c r="AV5">
+        <v>48</v>
+      </c>
+      <c r="AW5">
+        <v>49</v>
+      </c>
+      <c r="AX5">
+        <v>50</v>
+      </c>
+      <c r="AY5">
+        <v>51</v>
+      </c>
+      <c r="AZ5">
+        <v>52</v>
+      </c>
+      <c r="BA5">
+        <v>53</v>
+      </c>
+      <c r="BB5">
+        <v>54</v>
+      </c>
+      <c r="BC5">
+        <v>55</v>
+      </c>
+      <c r="BD5">
+        <v>56</v>
+      </c>
+      <c r="BE5">
+        <v>57</v>
+      </c>
+      <c r="BF5">
+        <v>58</v>
+      </c>
+      <c r="BG5">
+        <v>59</v>
+      </c>
+      <c r="BH5">
+        <v>60</v>
+      </c>
+      <c r="BI5">
         <v>61</v>
       </c>
-      <c r="BO2">
-        <v>10</v>
-      </c>
-      <c r="BP2">
-        <v>10102022</v>
-      </c>
-      <c r="BQ2">
-        <v>10</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>485</v>
-      </c>
-      <c r="BS2">
-        <v>10</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2">
-        <v>11172021</v>
-      </c>
-      <c r="BV2">
-        <v>10</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75">
-      <c r="C3" s="5" t="s">
-        <v>465</v>
-      </c>
+      <c r="BJ5">
+        <v>62</v>
+      </c>
+      <c r="BK5">
+        <v>63</v>
+      </c>
+      <c r="BL5">
+        <v>64</v>
+      </c>
+      <c r="BM5">
+        <v>65</v>
+      </c>
+      <c r="BN5">
+        <v>66</v>
+      </c>
+      <c r="BO5">
+        <v>67</v>
+      </c>
+      <c r="BP5">
+        <v>68</v>
+      </c>
+      <c r="BQ5">
+        <v>69</v>
+      </c>
+      <c r="BR5">
+        <v>70</v>
+      </c>
+      <c r="BS5">
+        <v>71</v>
+      </c>
+      <c r="BT5">
+        <v>72</v>
+      </c>
+      <c r="BU5">
+        <v>73</v>
+      </c>
+      <c r="BV5">
+        <v>74</v>
+      </c>
+      <c r="BW5">
+        <v>75</v>
+      </c>
+      <c r="BX5">
+        <v>76</v>
+      </c>
+      <c r="BY5">
+        <v>77</v>
+      </c>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"ACTIVE,INACTIVE"</formula1>
     </dataValidation>

--- a/Data Files/configdata.xlsx
+++ b/Data Files/configdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerInfo" sheetId="4" r:id="rId1"/>
@@ -27,12 +27,127 @@
     <sheet name="InventoryRegisterReport" sheetId="19" r:id="rId18"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="810">
   <si>
     <t>SSN</t>
   </si>
@@ -355,9 +470,6 @@
     <t>https://medsqa.bonafide.com/meds/logon.jsp?stay=true</t>
   </si>
   <si>
-    <t>9992</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -2179,12 +2291,6 @@
     <t>CPI</t>
   </si>
   <si>
-    <t>TPARTNO</t>
-  </si>
-  <si>
-    <t>TESTDESCRIPTION</t>
-  </si>
-  <si>
     <t>ALNY</t>
   </si>
   <si>
@@ -2419,21 +2525,12 @@
     <t>IBERIA</t>
   </si>
   <si>
-    <t>JAYSON</t>
-  </si>
-  <si>
-    <t>MCKENNA</t>
-  </si>
-  <si>
     <t>72972</t>
   </si>
   <si>
     <t>TEST DESC1</t>
   </si>
   <si>
-    <t>MEDICARE JURISDICTION A</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -2446,23 +2543,47 @@
     <t>621-02-1982</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>660-01-1981</t>
-  </si>
-  <si>
-    <t>000000103</t>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>SHOEMAKER</t>
+  </si>
+  <si>
+    <t>514-52-3415</t>
+  </si>
+  <si>
+    <t>LG2A00</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>LUNA 2 AUTO CPAP</t>
+  </si>
+  <si>
+    <t>E0601</t>
+  </si>
+  <si>
+    <t>FIDELIS - MEDICAID</t>
+  </si>
+  <si>
+    <t>LH1</t>
+  </si>
+  <si>
+    <t>HEATED TUBE FOR 3B LUNA UNITS</t>
+  </si>
+  <si>
+    <t>660-01-1912</t>
+  </si>
+  <si>
+    <t>9994</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,6 +2638,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2648,7 +2776,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2704,6 +2832,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3002,7 +3137,7 @@
   <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3198,25 +3333,25 @@
         <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -3228,10 +3363,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>54</v>
@@ -3240,7 +3375,7 @@
         <v>35410</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="8" t="s">
@@ -3250,16 +3385,16 @@
         <v>65</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>15</v>
@@ -3268,36 +3403,36 @@
         <v>16</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>59</v>
@@ -3312,7 +3447,7 @@
         <v>60</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR2" s="5" t="s">
         <v>61</v>
@@ -3344,25 +3479,25 @@
         <v>106</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>21</v>
@@ -3374,19 +3509,19 @@
         <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P3" s="14">
         <v>40849</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="8" t="s">
@@ -3396,10 +3531,10 @@
         <v>65</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>13</v>
@@ -3414,36 +3549,36 @@
         <v>16</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AB3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM3" s="5" t="s">
         <v>59</v>
@@ -3458,7 +3593,7 @@
         <v>60</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR3" s="5" t="s">
         <v>61</v>
@@ -3490,49 +3625,49 @@
         <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="P4" s="46" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>738</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="8" t="s">
@@ -3542,10 +3677,10 @@
         <v>65</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>13</v>
@@ -3560,36 +3695,36 @@
         <v>16</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AB4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM4" s="5" t="s">
         <v>60</v>
@@ -3604,7 +3739,7 @@
         <v>60</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR4" s="5" t="s">
         <v>61</v>
@@ -3636,25 +3771,25 @@
         <v>106</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>21</v>
@@ -3666,10 +3801,10 @@
         <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>54</v>
@@ -3678,20 +3813,20 @@
         <v>43987</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>13</v>
@@ -3706,36 +3841,36 @@
         <v>16</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AB5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>59</v>
@@ -3750,7 +3885,7 @@
         <v>60</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR5" s="5" t="s">
         <v>61</v>
@@ -3782,25 +3917,25 @@
         <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F6" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>728</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -3812,19 +3947,19 @@
         <v>52</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="P6" s="14">
         <v>27553</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="8" t="s">
@@ -3834,10 +3969,10 @@
         <v>65</v>
       </c>
       <c r="U6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>13</v>
@@ -3852,36 +3987,36 @@
         <v>16</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AB6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM6" s="5" t="s">
         <v>60</v>
@@ -3896,7 +4031,7 @@
         <v>60</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR6" s="5" t="s">
         <v>61</v>
@@ -3928,40 +4063,40 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F7" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>729</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>54</v>
@@ -3970,20 +4105,20 @@
         <v>43770</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>13</v>
@@ -3998,36 +4133,36 @@
         <v>16</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AB7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM7" s="5" t="s">
         <v>59</v>
@@ -4042,7 +4177,7 @@
         <v>60</v>
       </c>
       <c r="AQ7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR7" s="5" t="s">
         <v>61</v>
@@ -4074,25 +4209,25 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="F8" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>730</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>21</v>
@@ -4104,32 +4239,32 @@
         <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="P8" s="14">
         <v>38698</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>13</v>
@@ -4144,36 +4279,36 @@
         <v>16</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AB8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AE8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="AG8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM8" s="5" t="s">
         <v>59</v>
@@ -4188,7 +4323,7 @@
         <v>60</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR8" s="5" t="s">
         <v>61</v>
@@ -4365,15 +4500,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations disablePrompts="1" count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ8">
       <formula1>"'1,'2,'3,'4,'5,'6,'7,'8,'9,'10,'11,'12,'13,'14,'15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>"'9991,'9992,'9993"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
       <formula1>"HSSTRAIN,medeq,VIEMEDTRAIN,MEDSOUTHTRAIN,SUPPORTTRAIN,CPITRAIN"</formula1>
@@ -4405,6 +4537,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"CHCSTRAIN,HSSTRAIN,medeq,VIEMEDTRAIN,MEDSOUTHTRAIN,SUPPORTTRAIN,CPITRAIN"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"'9991,'9992,'9993,'9994,'9995"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="AG2" r:id="rId1"/>
@@ -4423,6 +4558,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4430,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4457,123 +4593,123 @@
   <sheetData>
     <row r="1" spans="1:36" s="31" customFormat="1">
       <c r="A1" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>480</v>
-      </c>
       <c r="J1" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="Y1" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="AE1" s="13" t="s">
-        <v>501</v>
-      </c>
       <c r="AF1" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG1" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="AH1" s="13" t="s">
-        <v>509</v>
-      </c>
       <c r="AI1" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4582,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -4597,25 +4733,25 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>502</v>
+      </c>
+      <c r="T2" t="s">
         <v>503</v>
       </c>
-      <c r="T2" t="s">
-        <v>504</v>
-      </c>
       <c r="U2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X2" t="s">
         <v>12</v>
@@ -4624,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>807</v>
+        <v>161</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>42576</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -4644,10 +4780,10 @@
     </row>
     <row r="4" spans="1:36">
       <c r="AF4" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG4" t="s">
         <v>706</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4715,234 +4851,234 @@
         <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="N1" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>525</v>
-      </c>
       <c r="Q1" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>529</v>
-      </c>
       <c r="S1" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U1" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>536</v>
-      </c>
       <c r="Z1" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA1" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC1" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="AB1" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>540</v>
-      </c>
       <c r="AD1" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE1" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AG1" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="AG1" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AI1" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL1" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="AI1" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AM1" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="AP1" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="AK1" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL1" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="AM1" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="AN1" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="AO1" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AT1" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="AU1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="AT1" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>562</v>
-      </c>
       <c r="AV1" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="AW1" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AX1" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="AX1" s="29" t="s">
-        <v>571</v>
-      </c>
       <c r="AY1" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AZ1" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BA1" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BB1" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC1" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="BD1" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="BE1" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="BF1" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="BG1" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="BH1" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="BI1" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="BJ1" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="BK1" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="BC1" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="BD1" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="BE1" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="BF1" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="BG1" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="BH1" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="BI1" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="BJ1" s="29" t="s">
+      <c r="BL1" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="BK1" s="29" t="s">
+      <c r="BM1" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="BN1" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="BO1" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="BP1" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="BQ1" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="BL1" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="BM1" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BR1" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="BS1" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="BT1" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="BO1" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="BP1" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="BQ1" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="BR1" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="BS1" s="29" t="s">
+      <c r="BU1" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="BT1" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="BU1" s="29" t="s">
-        <v>577</v>
-      </c>
       <c r="BV1" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="BW1" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="BW1" s="29" t="s">
+      <c r="BX1" s="29" t="s">
         <v>598</v>
-      </c>
-      <c r="BX1" s="29" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:76">
       <c r="A2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5">
         <v>35501</v>
@@ -4963,7 +5099,7 @@
         <v>1.56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K2" s="5">
         <v>2.2200000000000002</v>
@@ -4975,52 +5111,52 @@
         <v>12122022</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="P2" s="5">
         <v>10</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="U2" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W2" s="24">
         <v>89</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Z2" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA2" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB2" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AC2" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="AD2" s="27" t="s">
         <v>60</v>
@@ -5029,28 +5165,28 @@
         <v>59</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AH2" s="5">
         <v>15271</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ2" s="5">
         <v>2</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AL2" s="5">
         <v>5</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN2" s="5">
         <v>3</v>
@@ -5059,95 +5195,95 @@
         <v>4</v>
       </c>
       <c r="AP2" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AT2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="AV2" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AW2" s="27" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="AX2" s="27" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="AY2" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="AZ2" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="BA2" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="AZ2" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="BA2" s="27" t="s">
-        <v>579</v>
-      </c>
       <c r="BB2" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BC2" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BD2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="BE2" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BF2" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BG2" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BH2" s="27"/>
       <c r="BI2" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BJ2" s="27"/>
       <c r="BK2" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BL2" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BM2" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BN2" s="27"/>
       <c r="BO2" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BP2" s="27"/>
       <c r="BQ2" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BR2" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BT2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BW2" s="5">
         <v>1</v>
@@ -5175,7 +5311,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5188,80 +5324,82 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2" s="7">
+        <v>96967</v>
+      </c>
+      <c r="C2" s="7">
+        <v>164340</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="E4" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="E5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>705</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5290,48 +5428,48 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
@@ -5340,26 +5478,26 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B8" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5385,69 +5523,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>720</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="H7" t="s">
         <v>713</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="H7" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5476,39 +5614,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>658</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>659</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>660</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="30"/>
@@ -5548,71 +5686,71 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>657</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="13" t="s">
         <v>667</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>
@@ -5620,7 +5758,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="I3" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -5651,68 +5789,68 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>670</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>672</v>
-      </c>
       <c r="L1" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="33" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>673</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>674</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
@@ -5752,58 +5890,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="35" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>693</v>
-      </c>
       <c r="R1" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5815,17 +5953,17 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -5868,7 +6006,7 @@
   <dimension ref="A1:CU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5897,7 +6035,7 @@
         <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>70</v>
@@ -5906,7 +6044,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>92</v>
@@ -5996,187 +6134,187 @@
         <v>89</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="CR1" s="13" t="s">
-        <v>300</v>
-      </c>
       <c r="CS1" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="CT1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="CT1" s="40" t="s">
+      <c r="CU1" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:99">
@@ -6187,65 +6325,65 @@
         <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>95</v>
@@ -6254,13 +6392,13 @@
         <v>96</v>
       </c>
       <c r="Z2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>97</v>
@@ -6269,34 +6407,34 @@
         <v>98</v>
       </c>
       <c r="AE2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>12</v>
@@ -6308,31 +6446,31 @@
         <v>51</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AT2" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AU2" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="AV2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AW2" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="AX2" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AY2" s="7" t="s">
         <v>94</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>95</v>
@@ -6341,13 +6479,13 @@
         <v>96</v>
       </c>
       <c r="BC2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="BF2" s="5" t="s">
         <v>97</v>
@@ -6356,34 +6494,34 @@
         <v>98</v>
       </c>
       <c r="BH2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="BJ2" s="5" t="s">
         <v>99</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BM2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO2" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="BP2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BR2" s="3" t="s">
         <v>12</v>
@@ -6398,17 +6536,17 @@
         <v>58</v>
       </c>
       <c r="BV2" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BW2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="BX2" s="5"/>
       <c r="BY2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="CA2" s="4" t="s">
         <v>93</v>
@@ -6417,22 +6555,22 @@
         <v>94</v>
       </c>
       <c r="CC2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="CF2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CH2" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="CI2" s="5" t="s">
         <v>97</v>
@@ -6441,34 +6579,34 @@
         <v>98</v>
       </c>
       <c r="CK2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL2" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="CL2" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="CM2" s="5" t="s">
         <v>99</v>
       </c>
       <c r="CN2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CO2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CP2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="CQ2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="CS2" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CU2" s="3" t="s">
         <v>53</v>
@@ -6775,13 +6913,13 @@
     </row>
     <row r="6" spans="1:99">
       <c r="K6" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -6837,10 +6975,10 @@
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6873,106 +7011,106 @@
         <v>73</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:46">
@@ -6983,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -6992,125 +7130,125 @@
         <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>65</v>
       </c>
       <c r="S2" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" s="27" t="s">
-        <v>173</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AE2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG2" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG2" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="AN2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -7297,13 +7435,13 @@
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -7312,10 +7450,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -7339,19 +7477,19 @@
         <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>47</v>
@@ -7360,58 +7498,58 @@
         <v>48</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>4</v>
@@ -7420,28 +7558,28 @@
         <v>25</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>73</v>
@@ -7449,57 +7587,57 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>59</v>
@@ -7523,61 +7661,61 @@
         <v>60</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AD2" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="AF2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH2" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AI2" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="AI2" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="AK2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="AM2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="AO2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AP2" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="AT2" s="5" t="s">
         <v>60</v>
@@ -7586,13 +7724,13 @@
         <v>60</v>
       </c>
       <c r="AV2" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AX2" s="37" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -7769,7 +7907,7 @@
   <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7781,153 +7919,153 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="I1" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="Q1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>316</v>
-      </c>
       <c r="S1" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V1" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="X1" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="W1" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="AC1" s="19" t="s">
-        <v>614</v>
-      </c>
       <c r="AD1" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE1" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AF1" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AG1" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AP1" s="18" t="s">
         <v>644</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -7940,39 +8078,39 @@
         <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V2" s="7">
-        <v>902</v>
+        <v>96966</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="14" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AC2" s="5">
         <v>1</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
@@ -7987,7 +8125,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8043,30 +8181,30 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:42">
       <c r="I6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -8076,18 +8214,18 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -8106,127 +8244,150 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="15" customFormat="1">
       <c r="A1" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="AD1" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="AE1" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="7" t="s">
-        <v>804</v>
+      <c r="A2" s="7">
+        <v>658</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" s="16">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16">
-        <v>25</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="16">
         <v>12122019</v>
       </c>
@@ -8234,66 +8395,66 @@
         <v>10212022</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD2" s="5">
         <v>3</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -8342,12 +8503,16 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -8358,68 +8523,70 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D2">
         <v>72972</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:19">
@@ -8427,13 +8594,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H3">
         <v>9947</v>
@@ -8451,10 +8618,10 @@
         <v>64</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>90</v>
@@ -8481,129 +8648,131 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>383</v>
-      </c>
       <c r="R1" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>170</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>435</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="5" t="s">
-        <v>428</v>
+        <v>802</v>
       </c>
       <c r="M2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="U2" s="7"/>
+        <v>801</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>440</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="W2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="F11" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -8635,13 +8804,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
     <col min="76" max="76" width="16" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -8650,275 +8821,275 @@
     <col min="81" max="81" width="15" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84">
       <c r="A1" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="AI1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL1" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="AK1" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB1" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AW1" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="BC1" s="13" t="s">
-        <v>426</v>
-      </c>
       <c r="BD1" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BF1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="BG1" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="BH1" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BV1" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="BV1" s="13" t="s">
-        <v>466</v>
-      </c>
       <c r="BW1" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BX1" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="BY1" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="BY1" s="19" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="BZ1" s="17" t="s">
-        <v>697</v>
-      </c>
       <c r="CA1" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CB1" s="44" t="s">
+        <v>698</v>
+      </c>
+      <c r="CC1" s="44" t="s">
         <v>699</v>
       </c>
-      <c r="CC1" s="44" t="s">
+      <c r="CD1" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="CD1" s="44" t="s">
+      <c r="CE1" s="44" t="s">
         <v>701</v>
       </c>
-      <c r="CE1" s="44" t="s">
+      <c r="CF1" s="44" t="s">
         <v>702</v>
-      </c>
-      <c r="CF1" s="44" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:84" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8931,13 +9102,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N2" s="5">
         <v>12122031</v>
@@ -8946,47 +9117,47 @@
         <v>59</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="T2" s="5">
         <v>15</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>60</v>
@@ -8995,19 +9166,19 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ2" s="5">
         <v>50</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN2" s="5" t="s">
         <v>60</v>
@@ -9017,60 +9188,60 @@
       </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AR2" s="5"/>
       <c r="AS2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AY2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BB2" s="5">
         <v>112</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BD2" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BE2" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BF2" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BG2" s="5">
         <v>30</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BI2" s="5">
         <v>12122025</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BK2" s="5">
         <v>20</v>
@@ -9094,7 +9265,7 @@
         <v>10</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BS2" s="5">
         <v>10</v>
@@ -9112,34 +9283,34 @@
         <v>60</v>
       </c>
       <c r="BX2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BY2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BZ2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CA2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>428</v>
+        <v>802</v>
       </c>
       <c r="CC2" s="5" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="CD2" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="CE2" s="5"/>
       <c r="CF2" s="5" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:84">
       <c r="C3" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:84">

--- a/Data Files/configdata.xlsx
+++ b/Data Files/configdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerInfo" sheetId="4" r:id="rId1"/>
@@ -2240,9 +2240,6 @@
     <t>TransferFromOffice</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TransferMake</t>
   </si>
   <si>
@@ -2577,6 +2574,9 @@
   </si>
   <si>
     <t>9994</t>
+  </si>
+  <si>
+    <t>LG3HT</t>
   </si>
 </sst>
 </file>
@@ -3336,22 +3336,22 @@
         <v>443</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -3375,7 +3375,7 @@
         <v>35410</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="8" t="s">
@@ -3385,16 +3385,16 @@
         <v>65</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>15</v>
@@ -3403,7 +3403,7 @@
         <v>16</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>120</v>
@@ -3424,10 +3424,10 @@
         <v>58</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
@@ -3482,22 +3482,22 @@
         <v>443</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>21</v>
@@ -3509,19 +3509,19 @@
         <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>169</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P3" s="14">
         <v>40849</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="8" t="s">
@@ -3549,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>120</v>
@@ -3573,7 +3573,7 @@
         <v>110</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
@@ -3628,28 +3628,28 @@
         <v>444</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>52</v>
@@ -3661,13 +3661,13 @@
         <v>169</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="8" t="s">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>120</v>
@@ -3716,10 +3716,10 @@
         <v>58</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
@@ -3774,22 +3774,22 @@
         <v>448</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>21</v>
@@ -3801,7 +3801,7 @@
         <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>169</v>
@@ -3813,14 +3813,14 @@
         <v>43987</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>108</v>
@@ -3841,7 +3841,7 @@
         <v>16</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>120</v>
@@ -3862,7 +3862,7 @@
         <v>58</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>111</v>
@@ -3920,22 +3920,22 @@
         <v>445</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -3953,13 +3953,13 @@
         <v>169</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P6" s="14">
         <v>27553</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="8" t="s">
@@ -3987,7 +3987,7 @@
         <v>16</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>120</v>
@@ -4011,7 +4011,7 @@
         <v>110</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
@@ -4066,34 +4066,34 @@
         <v>446</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>169</v>
@@ -4105,14 +4105,14 @@
         <v>43770</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>108</v>
@@ -4133,7 +4133,7 @@
         <v>16</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>120</v>
@@ -4154,10 +4154,10 @@
         <v>58</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
@@ -4212,22 +4212,22 @@
         <v>447</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>21</v>
@@ -4245,13 +4245,13 @@
         <v>169</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P8" s="14">
         <v>38698</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="8" t="s">
@@ -4279,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>120</v>
@@ -4303,7 +4303,7 @@
         <v>110</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
@@ -4566,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -4706,7 +4706,7 @@
         <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F2" t="s">
         <v>480</v>
@@ -4780,10 +4780,10 @@
     </row>
     <row r="4" spans="1:36">
       <c r="AF4" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="AG4" t="s">
         <v>705</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5141,7 @@
         <v>89</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Y2" s="23" t="s">
         <v>537</v>
@@ -5216,10 +5216,10 @@
         <v>571</v>
       </c>
       <c r="AW2" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AX2" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AY2" s="27" t="s">
         <v>577</v>
@@ -5365,7 +5365,7 @@
         <v>625</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -5375,7 +5375,7 @@
         <v>626</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5393,10 +5393,10 @@
         <v>443</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>703</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>704</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>679</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5489,15 +5489,15 @@
         <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -5537,21 +5537,21 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5573,19 +5573,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="H7" t="s">
         <v>712</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="H7" t="s">
-        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -5646,7 +5646,7 @@
         <v>171</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="30"/>
@@ -5733,10 +5733,10 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -5827,14 +5827,14 @@
     </row>
     <row r="2" spans="1:12" s="33" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>532</v>
@@ -5953,10 +5953,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>779</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
@@ -6349,38 +6349,38 @@
         <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>108</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>763</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>113</v>
@@ -6446,7 +6446,7 @@
         <v>51</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AS2" s="7" t="s">
         <v>308</v>
@@ -6464,7 +6464,7 @@
         <v>109</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AY2" s="7" t="s">
         <v>94</v>
@@ -6913,13 +6913,13 @@
     </row>
     <row r="6" spans="1:99">
       <c r="K6" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>759</v>
-      </c>
       <c r="M6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -7121,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -7130,23 +7130,23 @@
         <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>128</v>
@@ -7212,10 +7212,10 @@
         <v>175</v>
       </c>
       <c r="AH2" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>162</v>
@@ -7239,7 +7239,7 @@
         <v>128</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AR2" s="5" t="s">
         <v>128</v>
@@ -7587,16 +7587,16 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>773</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7619,7 +7619,7 @@
         <v>123</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>169</v>
@@ -7637,7 +7637,7 @@
         <v>194</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>59</v>
@@ -7700,13 +7700,13 @@
         <v>218</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AO2" s="5" t="s">
         <v>219</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>169</v>
@@ -7730,7 +7730,7 @@
         <v>60</v>
       </c>
       <c r="AX2" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -8065,7 +8065,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -8084,7 +8084,7 @@
         <v>12</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>631</v>
@@ -8097,7 +8097,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>614</v>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="7" t="s">
@@ -8201,7 +8201,7 @@
         <v>509</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W6" t="s">
         <v>675</v>
@@ -8217,7 +8217,7 @@
         <v>627</v>
       </c>
       <c r="B9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -8451,7 +8451,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
         <v>443</v>
@@ -8576,16 +8576,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D2">
         <v>72972</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -8747,19 +8747,19 @@
       <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="7"/>
       <c r="J2" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="T2" s="5"/>
@@ -8804,15 +8804,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CF5"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CA9" sqref="CA9"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CD11" sqref="CD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
     <col min="76" max="76" width="16" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -8821,7 +8833,7 @@
     <col min="81" max="81" width="15" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.7109375" customWidth="1"/>
+    <col min="84" max="84" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84">
@@ -9063,19 +9075,19 @@
         <v>694</v>
       </c>
       <c r="CB1" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="CC1" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="CC1" s="44" t="s">
+      <c r="CD1" s="44" t="s">
         <v>699</v>
       </c>
-      <c r="CD1" s="44" t="s">
+      <c r="CE1" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="CE1" s="44" t="s">
+      <c r="CF1" s="44" t="s">
         <v>701</v>
-      </c>
-      <c r="CF1" s="44" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:84" ht="15" customHeight="1">
@@ -9295,17 +9307,17 @@
         <v>124</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="CC2" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="CD2" s="38" t="s">
-        <v>697</v>
+        <v>809</v>
       </c>
       <c r="CE2" s="5"/>
       <c r="CF2" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:84">

--- a/Data Files/configdata.xlsx
+++ b/Data Files/configdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7515" tabRatio="788" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerInfo" sheetId="4" r:id="rId1"/>
@@ -2528,9 +2528,6 @@
     <t>TEST DESC1</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>ACTIVES</t>
   </si>
   <si>
@@ -2577,6 +2574,9 @@
   </si>
   <si>
     <t>LG3HT</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
 </sst>
 </file>
@@ -3336,13 +3336,13 @@
         <v>443</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>724</v>
@@ -3482,13 +3482,13 @@
         <v>443</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>724</v>
@@ -3628,7 +3628,7 @@
         <v>444</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>107</v>
@@ -3774,7 +3774,7 @@
         <v>448</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>107</v>
@@ -3920,7 +3920,7 @@
         <v>445</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>107</v>
@@ -4066,7 +4066,7 @@
         <v>446</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -4212,7 +4212,7 @@
         <v>447</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>107</v>
@@ -4566,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4706,7 +4706,7 @@
         <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F2" t="s">
         <v>480</v>
@@ -4763,7 +4763,7 @@
         <v>161</v>
       </c>
       <c r="AF2" s="12">
-        <v>42576</v>
+        <v>42610</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -5216,10 +5216,10 @@
         <v>571</v>
       </c>
       <c r="AW2" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AX2" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AY2" s="27" t="s">
         <v>577</v>
@@ -5311,7 +5311,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5356,16 +5356,16 @@
         <v>624</v>
       </c>
       <c r="B2" s="7">
-        <v>96967</v>
+        <v>96990</v>
       </c>
       <c r="C2" s="7">
-        <v>164340</v>
+        <v>164346</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>625</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -5375,7 +5375,7 @@
         <v>626</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7906,15 +7906,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -8090,7 +8105,7 @@
         <v>631</v>
       </c>
       <c r="V2" s="7">
-        <v>96966</v>
+        <v>96990</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -8576,16 +8591,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D2">
         <v>72972</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -8747,19 +8762,19 @@
       <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="7"/>
       <c r="J2" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="T2" s="5"/>
@@ -8804,7 +8819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+    <sheetView topLeftCell="BT1" workbookViewId="0">
       <selection activeCell="CD11" sqref="CD11"/>
     </sheetView>
   </sheetViews>
@@ -9307,17 +9322,17 @@
         <v>124</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="CC2" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="CD2" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="CE2" s="5"/>
       <c r="CF2" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:84">
